--- a/数据整理/stocks/A股/上证主板/600258-首旅酒店.xlsx
+++ b/数据整理/stocks/A股/上证主板/600258-首旅酒店.xlsx
@@ -451,603 +451,811 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4120</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6551</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>006167</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>德邦乐享生活混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>88.42</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.73</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>62.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>006168</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>德邦乐享生活混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>88.42</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>3.73</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007152</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺德策略精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>62.51</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160722</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实惠泽灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000011</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏大盘精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>570005</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺德成长优势混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>64.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002598</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>平安消费精选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>90.92</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2.99</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002599</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>平安消费精选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008840</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>德邦大消费混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008841</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>德邦大消费混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>070021</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实主题新动力混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000985</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实逆向策略股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>700001</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>平安行业先锋混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001179</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>德邦大健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001445</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华安国企改革主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003561</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>诺德成长精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>52.38</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003562</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>诺德成长精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>52.38</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005775</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005776</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001900</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>诺安精选价值混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1057,7 +1265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,15 +1286,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1098,26 +1316,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003626</t>
+          <t>001071</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合A</t>
+          <t>华安媒体互联网混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>44.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1906</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1126,26 +1354,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006433</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合C</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>55.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6690</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1154,26 +1392,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010404</t>
+          <t>009950</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博道盛利6个月持有期混合</t>
+          <t>财通资管均衡价值一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27.81</t>
+          <t>29.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4483</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1182,26 +1430,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001223</t>
+          <t>010887</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华文化传媒娱乐股票</t>
+          <t>南方消费升级混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83.02</t>
+          <t>37.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>67.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1966</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1210,26 +1468,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004693</t>
+          <t>006879</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隽灵活配置混合A</t>
+          <t>华安智能生活混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.55</t>
+          <t>20.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0134</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007042</t>
+          <t>070021</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隽灵活配置混合C</t>
+          <t>嘉实主题新动力混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.55</t>
+          <t>13.18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6959</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1266,26 +1544,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000928</t>
+          <t>000985</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中融国企改革灵活配置混合</t>
+          <t>嘉实逆向策略股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.70</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3960</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005585</t>
+          <t>009347</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
+          <t>中融价值成长6个月持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>72.70</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3854</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005775</t>
+          <t>003956</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合A</t>
+          <t>南方现代教育股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005776</t>
+          <t>010888</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合C</t>
+          <t>南方消费升级混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>67.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3209</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001581</t>
+          <t>001445</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华安沪港深通精选灵活配置混合</t>
+          <t>华安国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>85.33</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3052</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008037</t>
+          <t>007460</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合A</t>
+          <t>华安成长创新混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3029</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008038</t>
+          <t>001581</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合C</t>
+          <t>华安沪港深通精选灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>9.71</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2360</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005569</t>
+          <t>004693</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中融智选红利股票A</t>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005570</t>
+          <t>011097</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中融智选红利股票C</t>
+          <t>达诚宜创精选混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005574</t>
+          <t>009414</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东吴悦秀纯债债券C</t>
+          <t>中银大健康股票A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005580</t>
+          <t>008424</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>光大保德信晟利债券C</t>
+          <t>中融品牌优选混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1584,15 +1972,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>93.09</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>3.13</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005591</t>
+          <t>001179</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>汇添富鑫永定期开放债券C</t>
+          <t>德邦大健康灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009347</t>
+          <t>700001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中融价值成长6个月持有期混合A</t>
+          <t>平安行业先锋混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009348</t>
+          <t>010404</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中融价值成长6个月持有期混合C</t>
+          <t>博道盛利6个月持有期混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
+          <t>27.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009350</t>
+          <t>008840</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>新疆前海联合添泽债券C</t>
+          <t>德邦大消费混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006167</t>
+          <t>519678</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>德邦乐享生活混合A</t>
+          <t>银河消费驱动混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>84.95</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>006168</t>
+          <t>003132</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>德邦乐享生活混合C</t>
+          <t>德邦新回报灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>84.95</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1770,26 +2228,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009950</t>
+          <t>160722</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>财通资管均衡价值一年持有期混合</t>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>000432</t>
+          <t>400032</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中银优秀企业混合</t>
+          <t>东方主题精选混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>87.61</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>009999</t>
+          <t>006167</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东方中国红利混合</t>
+          <t>德邦乐享生活混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>79.40</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1854,25 +2342,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>400032</t>
+          <t>001223</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>东方主题精选混合</t>
+          <t>鹏华文化传媒娱乐股票</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1882,26 +2380,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>000985</t>
+          <t>003626</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>嘉实逆向策略股票</t>
+          <t>平安鑫利灵活配置混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>006879</t>
+          <t>006433</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华安智能生活混合</t>
+          <t>平安鑫利灵活配置混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>89.59</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>001071</t>
+          <t>009999</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华安媒体互联网混合</t>
+          <t>东方中国红利混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1966,25 +2494,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>001179</t>
+          <t>009348</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>德邦大健康灵活配置混合</t>
+          <t>中融价值成长6个月持有期混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>85.71</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1994,26 +2532,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>008037</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>兴银先锋成长混合A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>74.57</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>5</v>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2022,26 +2570,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>010887</t>
+          <t>003145</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>南方消费升级混合A</t>
+          <t>中融竞争优势股票</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>67.18</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>9</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2050,26 +2608,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>010888</t>
+          <t>011098</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>南方消费升级混合C</t>
+          <t>达诚宜创精选混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>67.18</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>9</v>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -2078,26 +2646,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>007460</t>
+          <t>005775</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华安成长创新混合</t>
+          <t>中加转型动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>84.04</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>4</v>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -2106,26 +2684,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>011097</t>
+          <t>008841</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合A</t>
+          <t>德邦大消费混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -2134,26 +2722,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>011098</t>
+          <t>011229</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合C</t>
+          <t>创金合信数字经济主题股票A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>2</v>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -2162,26 +2760,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>011229</t>
+          <t>006168</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票A</t>
+          <t>德邦乐享生活混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>6</v>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2190,26 +2798,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>011230</t>
+          <t>002137</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票C</t>
+          <t>诺安利鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>6</v>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -2218,26 +2836,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>001363</t>
+          <t>005585</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>长城久惠灵活配置混合</t>
+          <t>银河文体娱乐主题灵活配置混合</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>60.84</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>9</v>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -2246,25 +2874,35 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>020033</t>
+          <t>009671</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>国泰民安增利债券A</t>
+          <t>平安恒泽混合A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>20.62</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2274,26 +2912,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>020034</t>
+          <t>000928</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>国泰民安增利债券C</t>
+          <t>中融国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>20.62</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>9</v>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -2302,26 +2950,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>001445</t>
+          <t>700004</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华安国企改革主题灵活配置混合</t>
+          <t>平安灵活配置混合</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>78.53</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>3</v>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2330,26 +2988,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>001474</t>
+          <t>163818</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>兴银丰盈灵活配置混合</t>
+          <t>中银中小盘成长混合</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>6</v>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -2358,26 +3026,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>070021</t>
+          <t>002512</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>嘉实主题新动力混合</t>
+          <t>长城久润混合</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>4</v>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -2386,26 +3064,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>519678</t>
+          <t>001363</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>银河消费驱动混合</t>
+          <t>长城久惠灵活配置混合</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>87.59</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>10</v>
+          <t>60.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -2414,26 +3102,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>001905</t>
+          <t>008038</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>华安安益灵活配置混合</t>
+          <t>兴银先锋成长混合C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>20.60</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2442,25 +3140,35 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>002020</t>
+          <t>011230</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>国都创新驱动灵活配置混合</t>
+          <t>创金合信数字经济主题股票C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>72.80</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2470,26 +3178,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>002137</t>
+          <t>020033</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>诺安利鑫灵活配置混合</t>
+          <t>国泰民安增利债券A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>63.68</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>7</v>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -2498,26 +3216,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>160722</t>
+          <t>020034</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>嘉实惠泽灵活配置混合(LOF)</t>
+          <t>国泰民安增利债券C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>6</v>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -2526,26 +3254,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>700001</t>
+          <t>000432</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>平安行业先锋混合</t>
+          <t>中银优秀企业混合</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>2</v>
+          <t>87.61</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2554,26 +3292,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>700004</t>
+          <t>004189</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>平安灵活配置混合</t>
+          <t>华商消费行业股票</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>76.13</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>2</v>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -2582,26 +3330,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>002512</t>
+          <t>002543</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>长城久润混合</t>
+          <t>长城久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>87.78</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>7</v>
+          <t>60.29</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -2610,26 +3368,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>008840</t>
+          <t>009672</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>德邦大消费混合A</t>
+          <t>平安恒泽混合C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>6</v>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -2638,26 +3406,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>008841</t>
+          <t>005580</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>德邦大消费混合C</t>
+          <t>光大保德信晟利债券C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>6</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -2666,26 +3444,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>002543</t>
+          <t>001905</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>长城久益灵活配置混合A</t>
+          <t>华安安益灵活配置混合</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>60.29</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>8</v>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -2694,26 +3482,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>002544</t>
+          <t>002020</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>长城久益灵活配置混合C</t>
+          <t>国都创新驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>60.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>8</v>
+          <t>72.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -2722,25 +3520,35 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>003132</t>
+          <t>005569</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>德邦新回报灵活配置混合</t>
+          <t>中融智选红利股票A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2750,26 +3558,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>003145</t>
+          <t>001474</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中融竞争优势股票</t>
+          <t>兴银丰盈灵活配置混合</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>2</v>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -2778,26 +3596,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>003956</t>
+          <t>008425</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>南方现代教育股票</t>
+          <t>中融品牌优选混合C</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>92.29</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>7</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -2806,26 +3634,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>004189</t>
+          <t>002544</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华商消费行业股票</t>
+          <t>长城久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>86.91</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>10</v>
+          <t>60.29</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -2834,26 +3672,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>008424</t>
+          <t>005776</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中融品牌优选混合A</t>
+          <t>中加转型动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>4</v>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -2862,26 +3710,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>008425</t>
+          <t>009486</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中融品牌优选混合C</t>
+          <t>光大保德信瑞和混合A</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>4</v>
+          <t>63.88</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2890,26 +3748,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>009671</t>
+          <t>010321</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>平安恒泽混合A</t>
+          <t>中银大健康股票C</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>22.16</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>9</v>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -2918,26 +3786,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>009672</t>
+          <t>009487</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>平安恒泽混合C</t>
+          <t>光大保德信瑞和混合C</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>22.16</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>9</v>
+          <t>63.88</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -2946,26 +3824,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>009486</t>
+          <t>005570</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>光大保德信瑞和混合A</t>
+          <t>中融智选红利股票C</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>63.88</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>2</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -2974,26 +3862,36 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>009487</t>
+          <t>005591</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>光大保德信瑞和混合C</t>
+          <t>汇添富鑫永定期开放债券C</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>63.88</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>2</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -3002,26 +3900,30 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>009414</t>
+          <t>007042</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中银大健康股票A</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>85.91</t>
-        </is>
-      </c>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>10</v>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -3030,26 +3932,30 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>010321</t>
+          <t>005574</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中银大健康股票C</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>85.91</t>
-        </is>
-      </c>
+          <t>东吴悦秀纯债债券C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>10</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="72">
@@ -3058,26 +3964,30 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>163818</t>
+          <t>009350</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中银中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>87.72</t>
-        </is>
-      </c>
+          <t>新疆前海联合添泽债券C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>7</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600258-首旅酒店.xlsx
+++ b/数据整理/stocks/A股/上证主板/600258-首旅酒店.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3908,7 +3909,6 @@
           <t>新疆前海联合泳隽灵活配置混合C</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>88.55</t>
@@ -3940,7 +3940,6 @@
           <t>东吴悦秀纯债债券C</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>93.09</t>
@@ -3972,7 +3971,6 @@
           <t>新疆前海联合添泽债券C</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>89.39</t>
@@ -3988,6 +3986,1240 @@
       </c>
       <c r="H72" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3958</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0851</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1366</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9560</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2753</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>48.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001905</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600258-首旅酒店.xlsx
+++ b/数据整理/stocks/A股/上证主板/600258-首旅酒店.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5225,4 +5226,1238 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7340</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1499</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3099</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4581</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3652</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0834</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7578</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3196</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>65.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>65.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>71.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010605</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010606</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600258-首旅酒店.xlsx
+++ b/数据整理/stocks/A股/上证主板/600258-首旅酒店.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6460,4 +6461,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600258-首旅酒店.xlsx
+++ b/数据整理/stocks/A股/上证主板/600258-首旅酒店.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6469,7 +6470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6480,17 +6481,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6500,14 +6521,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.65</v>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9624</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -6516,14 +6559,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.890000000000001</v>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3309</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6532,14 +6597,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>71</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.79</v>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5858</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -6548,13 +6635,1329 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7585</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3259</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0921</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0153</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9145</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9064</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7037</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4774</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4196</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3179</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>35.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2454</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2091</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003127</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信易进混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003126</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信易进混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>71</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600258-首旅酒店.xlsx
+++ b/数据整理/stocks/A股/上证主板/600258-首旅酒店.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7856,7 +7857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7867,17 +7868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7887,14 +7908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.08</v>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4946</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -7903,14 +7946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.65</v>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5537</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -7919,14 +7984,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.890000000000001</v>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -7935,14 +8022,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>71</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.79</v>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9952</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -7951,13 +8060,1725 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6161</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4631</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1775</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1477</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8583</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7218</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6597</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6527</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6286</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5460</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3597</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2966</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2557</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004916</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实新添丰定期开放混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>71</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600258-首旅酒店.xlsx
+++ b/数据整理/stocks/A股/上证主板/600258-首旅酒店.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9661,7 +9662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9672,17 +9673,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9692,14 +9713,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>46</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.43</v>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6480</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -9708,14 +9751,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.08</v>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -9724,14 +9789,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.65</v>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5412</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -9740,14 +9827,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.890000000000001</v>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5197</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -9756,14 +9865,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>71</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12.79</v>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1614</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -9772,13 +9903,2955 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>57.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8817</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7460</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5126</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3879</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3602</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3174</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3120</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9442</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9436</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7501</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7277</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7123</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6994</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6533</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5910</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5623</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5452</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4160</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>69.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3890</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3872</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3617</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3425</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3386</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3338</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3094</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.85</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000590</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014549</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>015165</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>71</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>20</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600258-首旅酒店.xlsx
+++ b/数据整理/stocks/A股/上证主板/600258-首旅酒店.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n">
-        <v>35.66</v>
+        <v>29.68</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D3" t="n">
-        <v>22.43</v>
+        <v>35.66</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>21.08</v>
+        <v>22.43</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>15.65</v>
+        <v>21.08</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>9.890000000000001</v>
+        <v>15.65</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>12.79</v>
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>71</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>20</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.7</v>
       </c>
     </row>
@@ -600,6 +617,3824 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0601</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5623</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4246</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4227</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安智能生活混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2621</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2095</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1749</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1739</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1288</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0569</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0245</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安生态优先混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0091</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7243</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商优质成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6959</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6947</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6655</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6034</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5154</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5094</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4181</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3780</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商景气精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3564</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3352</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3282</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3167</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3022</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2874</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>64.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2614</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2149</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014977</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安生态优先混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商景气精选股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014754</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013116</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014177</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安景气驱动一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014267</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013949</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014755</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013767</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>平安价值回报混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014549</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>77.28</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>016290</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>64.78</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012498</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015741</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014178</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华安景气驱动一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>016462</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>信澳新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>32.68</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014972</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012499</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014268</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015742</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013768</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>平安价值回报混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>016070</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3655,7 +7490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5459,7 +9294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6838,1240 +10673,6 @@
       </c>
       <c r="H36" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519704</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银先进制造混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>82.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.7340</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010936</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银施罗德均衡成长一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>80.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>72.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.1499</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001071</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安媒体互联网混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>46.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.3099</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009402</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银施罗德启明混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>37.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.07</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4581</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006879</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安智能生活混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>24.12</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.3652</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519035</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国天博创新混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>28.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.0834</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010413</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通资管宸瑞一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>23.98</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7578</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001445</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安国企改革主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.69</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>77.55</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3196</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008138</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国龙头优势混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2164</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>159766</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>99.07</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1705</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004932</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商丰拓灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>13.11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>20.92</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1560</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>700001</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>平安行业先锋混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1123</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010937</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>交银施罗德均衡成长一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>72.43</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1104</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004142</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>24.07</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0909</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004143</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>24.07</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0900</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004933</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商丰拓灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>20.92</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0827</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010414</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>财通资管宸瑞一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.62</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0796</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011229</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>81.98</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0688</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001664</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>平安鑫安混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>25.60</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0441</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007049</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>平安鑫安混合E</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>25.60</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0441</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003626</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>平安鑫利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>35.32</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0441</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>011230</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>81.98</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0330</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009169</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>65.03</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006433</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>平安鑫利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>35.32</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>161036</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009170</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>65.03</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004775</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>嘉实新添泽定期开放混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>26.11</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001665</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>平安鑫安混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>25.60</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001900</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>诺安精选价值混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>71.89</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>010605</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>创金合信鑫祥混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>010606</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>创金合信鑫祥混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -8146,26 +10747,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.00</t>
+          <t>82.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.80</t>
+          <t>85.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.3958</t>
+          <t>3.7340</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -8184,26 +10785,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>65.57</t>
+          <t>80.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>48.68</t>
+          <t>72.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0851</t>
+          <t>3.1499</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -8222,26 +10823,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>45.86</t>
+          <t>46.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>93.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.0270</t>
+          <t>2.3099</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -8250,36 +10851,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006879</t>
+          <t>009402</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安智能生活混合</t>
+          <t>交银施罗德启明混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.60</t>
+          <t>37.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.99</t>
+          <t>80.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1366</t>
+          <t>1.4581</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -8288,36 +10889,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009402</t>
+          <t>006879</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银施罗德启明混合</t>
+          <t>华安智能生活混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.16</t>
+          <t>24.12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.43</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9560</t>
+          <t>1.3652</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -8326,36 +10927,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001445</t>
+          <t>519035</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安国企改革主题灵活配置混合</t>
+          <t>富国天博创新混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>28.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2753</t>
+          <t>1.0834</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -8364,36 +10965,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>700001</t>
+          <t>010413</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平安行业先锋混合</t>
+          <t>财通资管宸瑞一年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>23.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1356</t>
+          <t>0.7578</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -8402,36 +11003,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>400032</t>
+          <t>001445</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方主题精选混合</t>
+          <t>华安国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>10.69</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>77.55</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0953</t>
+          <t>0.3196</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -8440,36 +11041,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010937</t>
+          <t>008138</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>交银施罗德均衡成长一年持有期混合C</t>
+          <t>富国龙头优势混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>48.68</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0785</t>
+          <t>0.2164</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -8478,36 +11079,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011097</t>
+          <t>159766</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合A</t>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>69.92</t>
+          <t>99.07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0778</t>
+          <t>0.1705</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -8516,36 +11117,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011229</t>
+          <t>004932</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票A</t>
+          <t>招商丰拓灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>20.92</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0637</t>
+          <t>0.1560</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -8554,36 +11155,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010404</t>
+          <t>700001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博道盛利6个月持有期混合</t>
+          <t>平安行业先锋混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28.71</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0547</t>
+          <t>0.1123</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -8592,36 +11193,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005775</t>
+          <t>010937</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合A</t>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>72.86</t>
+          <t>72.43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0528</t>
+          <t>0.1104</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -8630,36 +11231,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010157</t>
+          <t>004142</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇安中证500指数增强A</t>
+          <t>招商盛合灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>24.07</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0497</t>
+          <t>0.0909</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -8668,36 +11269,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003626</t>
+          <t>004143</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合A</t>
+          <t>招商盛合灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29.35</t>
+          <t>24.07</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0462</t>
+          <t>0.0900</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -8706,36 +11307,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001664</t>
+          <t>004933</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>平安鑫安混合A</t>
+          <t>招商丰拓灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>21.42</t>
+          <t>20.92</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0458</t>
+          <t>0.0827</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -8744,36 +11345,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006433</t>
+          <t>010414</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合C</t>
+          <t>财通资管宸瑞一年持有期混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>29.35</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0441</t>
+          <t>0.0796</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -8782,36 +11383,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009169</t>
+          <t>011229</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>湘财长兴灵活配置混合A</t>
+          <t>创金合信数字经济主题股票A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>70.80</t>
+          <t>81.98</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0334</t>
+          <t>0.0688</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -8820,36 +11421,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007049</t>
+          <t>001664</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>平安鑫安混合E</t>
+          <t>平安鑫安混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21.42</t>
+          <t>25.60</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0300</t>
+          <t>0.0441</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -8858,36 +11459,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011230</t>
+          <t>007049</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票C</t>
+          <t>平安鑫安混合E</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>25.60</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0289</t>
+          <t>0.0441</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -8896,36 +11497,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>161036</t>
+          <t>003626</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
+          <t>平安鑫利灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>35.32</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0240</t>
+          <t>0.0441</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -8934,36 +11535,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009671</t>
+          <t>011230</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>平安恒泽混合A</t>
+          <t>创金合信数字经济主题股票C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>81.98</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0223</t>
+          <t>0.0330</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -8972,36 +11573,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005585</t>
+          <t>009169</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
+          <t>湘财长兴灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>72.70</t>
+          <t>65.03</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0218</t>
+          <t>0.0304</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -9010,32 +11611,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>700004</t>
+          <t>006433</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>平安灵活配置混合</t>
+          <t>平安鑫利灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>78.72</t>
+          <t>35.32</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0270</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -9048,36 +11649,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009170</t>
+          <t>161036</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>湘财长兴灵活配置混合C</t>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>70.80</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0169</t>
+          <t>0.0258</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -9086,32 +11687,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>010158</t>
+          <t>009170</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>汇安中证500指数增强C</t>
+          <t>湘财长兴灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>65.03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -9124,36 +11725,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>011098</t>
+          <t>004775</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合C</t>
+          <t>嘉实新添泽定期开放混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>69.92</t>
+          <t>26.11</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0157</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -9162,36 +11763,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005776</t>
+          <t>001665</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合C</t>
+          <t>平安鑫安混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>72.86</t>
+          <t>25.60</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0137</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -9200,36 +11801,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009672</t>
+          <t>001900</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>平安恒泽混合C</t>
+          <t>诺安精选价值混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>71.89</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0121</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -9238,36 +11839,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>001905</t>
+          <t>010605</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华安安益灵活配置混合</t>
+          <t>创金合信鑫祥混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20.23</t>
+          <t>28.33</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -9276,36 +11877,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>001665</t>
+          <t>010606</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>平安鑫安混合C</t>
+          <t>创金合信鑫祥混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>21.42</t>
+          <t>28.33</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -9314,6 +11915,1240 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3958</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0851</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1366</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9560</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2753</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>48.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001905</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12046,7 +15881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600258-首旅酒店.xlsx
+++ b/数据整理/stocks/A股/上证主板/600258-首旅酒店.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D2" t="n">
-        <v>29.68</v>
+        <v>40.79</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n">
-        <v>35.66</v>
+        <v>29.68</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D4" t="n">
-        <v>22.43</v>
+        <v>35.66</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>21.08</v>
+        <v>22.43</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>15.65</v>
+        <v>21.08</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>9.890000000000001</v>
+        <v>15.65</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>12.79</v>
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,844 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>71</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>20</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4120</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6551</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>62.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1448,4316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H113"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5799</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8522</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8194</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5117</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安智能生活混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4579</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3900</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3066</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2498</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2189</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1493</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1056</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0096</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安生态优先混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>34.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9929</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9453</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安成长创新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7860</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7393</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7090</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5985</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5651</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501064</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5514</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5330</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>交银主题优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4881</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4869</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4819</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4676</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4310</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商景气精选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4119</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3988</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3899</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3759</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3485</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3417</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3410</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3392</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3173</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3129</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3033</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2723</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2662</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2607</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2558</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014754</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2322</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014977</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安生态优先混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2319</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013884</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>交银主题优选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>73.61</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商景气精选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014311</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>016462</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014549</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>016617</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014755</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华安景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000398</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014267</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>77.51</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>016099</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华安成长创新混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013767</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>平安价值回报混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>016290</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>014972</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>016070</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014312</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>大成优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014268</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>007315</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇安嘉盈一年持有期债券A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010270</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇安嘉盈一年持有期债券C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>013768</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>平安价值回报混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>016564</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4434,7 +9575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7490,7 +12631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9294,7 +14435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10673,1240 +15814,6 @@
       </c>
       <c r="H36" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519704</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银先进制造混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>82.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.7340</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010936</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银施罗德均衡成长一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>80.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>72.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.1499</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001071</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安媒体互联网混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>46.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.3099</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009402</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银施罗德启明混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>37.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.07</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4581</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006879</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安智能生活混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>24.12</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.3652</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519035</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国天博创新混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>28.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.0834</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010413</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通资管宸瑞一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>23.98</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7578</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001445</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安国企改革主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.69</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>77.55</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3196</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008138</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国龙头优势混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2164</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>159766</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>99.07</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1705</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004932</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商丰拓灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>13.11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>20.92</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1560</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>700001</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>平安行业先锋混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1123</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010937</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>交银施罗德均衡成长一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>72.43</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1104</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004142</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>24.07</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0909</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004143</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>24.07</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0900</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004933</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商丰拓灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>20.92</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0827</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010414</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>财通资管宸瑞一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.62</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0796</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011229</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>81.98</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0688</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001664</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>平安鑫安混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>25.60</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0441</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007049</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>平安鑫安混合E</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>25.60</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0441</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003626</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>平安鑫利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>35.32</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0441</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>011230</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>81.98</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0330</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009169</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>65.03</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006433</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>平安鑫利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>35.32</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>161036</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009170</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>65.03</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004775</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>嘉实新添泽定期开放混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>26.11</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001665</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>平安鑫安混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>25.60</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001900</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>诺安精选价值混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>71.89</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>010605</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>创金合信鑫祥混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>010606</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>创金合信鑫祥混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -11981,26 +15888,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.00</t>
+          <t>82.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.80</t>
+          <t>85.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.3958</t>
+          <t>3.7340</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -12019,26 +15926,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>65.57</t>
+          <t>80.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>48.68</t>
+          <t>72.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0851</t>
+          <t>3.1499</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -12057,26 +15964,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>45.86</t>
+          <t>46.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>93.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.0270</t>
+          <t>2.3099</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -12085,36 +15992,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006879</t>
+          <t>009402</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安智能生活混合</t>
+          <t>交银施罗德启明混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.60</t>
+          <t>37.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.99</t>
+          <t>80.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1366</t>
+          <t>1.4581</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -12123,36 +16030,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009402</t>
+          <t>006879</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银施罗德启明混合</t>
+          <t>华安智能生活混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.16</t>
+          <t>24.12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.43</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9560</t>
+          <t>1.3652</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -12161,36 +16068,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001445</t>
+          <t>519035</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安国企改革主题灵活配置混合</t>
+          <t>富国天博创新混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>28.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2753</t>
+          <t>1.0834</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -12199,36 +16106,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>700001</t>
+          <t>010413</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平安行业先锋混合</t>
+          <t>财通资管宸瑞一年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>23.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1356</t>
+          <t>0.7578</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -12237,36 +16144,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>400032</t>
+          <t>001445</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方主题精选混合</t>
+          <t>华安国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>10.69</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>77.55</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0953</t>
+          <t>0.3196</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -12275,36 +16182,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010937</t>
+          <t>008138</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>交银施罗德均衡成长一年持有期混合C</t>
+          <t>富国龙头优势混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>48.68</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0785</t>
+          <t>0.2164</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -12313,36 +16220,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011097</t>
+          <t>159766</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合A</t>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>69.92</t>
+          <t>99.07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0778</t>
+          <t>0.1705</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -12351,36 +16258,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011229</t>
+          <t>004932</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票A</t>
+          <t>招商丰拓灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>20.92</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0637</t>
+          <t>0.1560</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -12389,36 +16296,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010404</t>
+          <t>700001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博道盛利6个月持有期混合</t>
+          <t>平安行业先锋混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28.71</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0547</t>
+          <t>0.1123</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -12427,36 +16334,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005775</t>
+          <t>010937</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合A</t>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>72.86</t>
+          <t>72.43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0528</t>
+          <t>0.1104</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -12465,36 +16372,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010157</t>
+          <t>004142</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇安中证500指数增强A</t>
+          <t>招商盛合灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>24.07</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0497</t>
+          <t>0.0909</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -12503,36 +16410,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003626</t>
+          <t>004143</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合A</t>
+          <t>招商盛合灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29.35</t>
+          <t>24.07</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0462</t>
+          <t>0.0900</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -12541,36 +16448,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001664</t>
+          <t>004933</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>平安鑫安混合A</t>
+          <t>招商丰拓灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>21.42</t>
+          <t>20.92</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0458</t>
+          <t>0.0827</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -12579,36 +16486,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006433</t>
+          <t>010414</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合C</t>
+          <t>财通资管宸瑞一年持有期混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>29.35</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0441</t>
+          <t>0.0796</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -12617,36 +16524,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009169</t>
+          <t>011229</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>湘财长兴灵活配置混合A</t>
+          <t>创金合信数字经济主题股票A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>70.80</t>
+          <t>81.98</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0334</t>
+          <t>0.0688</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -12655,36 +16562,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007049</t>
+          <t>001664</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>平安鑫安混合E</t>
+          <t>平安鑫安混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21.42</t>
+          <t>25.60</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0300</t>
+          <t>0.0441</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -12693,36 +16600,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011230</t>
+          <t>007049</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票C</t>
+          <t>平安鑫安混合E</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>25.60</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0289</t>
+          <t>0.0441</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -12731,36 +16638,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>161036</t>
+          <t>003626</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
+          <t>平安鑫利灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>35.32</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0240</t>
+          <t>0.0441</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -12769,36 +16676,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009671</t>
+          <t>011230</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>平安恒泽混合A</t>
+          <t>创金合信数字经济主题股票C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>81.98</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0223</t>
+          <t>0.0330</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -12807,36 +16714,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005585</t>
+          <t>009169</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
+          <t>湘财长兴灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>72.70</t>
+          <t>65.03</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0218</t>
+          <t>0.0304</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -12845,32 +16752,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>700004</t>
+          <t>006433</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>平安灵活配置混合</t>
+          <t>平安鑫利灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>78.72</t>
+          <t>35.32</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0270</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -12883,36 +16790,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009170</t>
+          <t>161036</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>湘财长兴灵活配置混合C</t>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>70.80</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0169</t>
+          <t>0.0258</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -12921,32 +16828,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>010158</t>
+          <t>009170</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>汇安中证500指数增强C</t>
+          <t>湘财长兴灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>65.03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -12959,36 +16866,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>011098</t>
+          <t>004775</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合C</t>
+          <t>嘉实新添泽定期开放混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>69.92</t>
+          <t>26.11</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0157</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -12997,36 +16904,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005776</t>
+          <t>001665</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合C</t>
+          <t>平安鑫安混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>72.86</t>
+          <t>25.60</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0137</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -13035,36 +16942,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009672</t>
+          <t>001900</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>平安恒泽混合C</t>
+          <t>诺安精选价值混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>71.89</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0121</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -13073,36 +16980,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>001905</t>
+          <t>010605</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华安安益灵活配置混合</t>
+          <t>创金合信鑫祥混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20.23</t>
+          <t>28.33</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -13111,36 +17018,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>001665</t>
+          <t>010606</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>平安鑫安混合C</t>
+          <t>创金合信鑫祥混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>21.42</t>
+          <t>28.33</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -13149,6 +17056,1240 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3958</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0851</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1366</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9560</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2753</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>48.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001905</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15879,818 +21020,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏大盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>71.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.4120</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>070021</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实主题新动力混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6551</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000985</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实逆向策略股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4336</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>570005</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺德成长优势混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>64.22</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3144</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001445</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安国企改革主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1848</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001179</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>德邦大健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1627</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008840</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>德邦大消费混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1538</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>700001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>平安行业先锋混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0778</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006167</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>德邦乐享生活混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.42</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0768</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>160722</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实惠泽灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0564</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005775</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0436</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003561</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>诺德成长精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>52.38</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0346</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008841</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>德邦大消费混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007152</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>诺德策略精选混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>62.51</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006168</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>德邦乐享生活混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>88.42</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001900</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>诺安精选价值混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002598</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>平安消费精选混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005776</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002599</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>平安消费精选混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003562</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>诺德成长精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>52.38</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>